--- a/applications/Spain/Madrid_projections.xlsx
+++ b/applications/Spain/Madrid_projections.xlsx
@@ -1070,16 +1070,16 @@
     <t>New infections</t>
   </si>
   <si>
-    <t>Small increase of restrictions in mid-August</t>
-  </si>
-  <si>
-    <t>Small ease of restrictions in mid-August</t>
-  </si>
-  <si>
-    <t>Small increase of restrictions in mid-September</t>
-  </si>
-  <si>
-    <t>Small ease of restrictions in mid-September</t>
+    <t>Small increasing of restrictions in mid-August</t>
+  </si>
+  <si>
+    <t>Small easing of restrictions in mid-August</t>
+  </si>
+  <si>
+    <t>Small increasing of restrictions in mid-September</t>
+  </si>
+  <si>
+    <t>Small easing of restrictions in mid-September</t>
   </si>
   <si>
     <t>No changes to current lockdown restrictions</t>
